--- a/UpdatedFiles/prior/CSProvisioning.xlsx
+++ b/UpdatedFiles/prior/CSProvisioning.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3923" uniqueCount="1835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4039" uniqueCount="1835">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -5521,7 +5521,7 @@
     <t>Source File</t>
   </si>
   <si>
-    <t>Care_Studio_all_users-07122022_-_SearchReport.csv</t>
+    <t>Care_Studio_all_users-07122022_-_SearchReport_1.csv</t>
   </si>
 </sst>
 </file>
@@ -7041,6 +7041,9 @@
       <c r="G40" t="s">
         <v>1042</v>
       </c>
+      <c r="I40" t="s">
+        <v>1081</v>
+      </c>
       <c r="J40" t="s">
         <v>1347</v>
       </c>
@@ -7067,6 +7070,9 @@
       <c r="G41" t="s">
         <v>1042</v>
       </c>
+      <c r="I41" t="s">
+        <v>1081</v>
+      </c>
       <c r="J41" t="s">
         <v>1347</v>
       </c>
@@ -7093,6 +7099,9 @@
       <c r="G42" t="s">
         <v>1039</v>
       </c>
+      <c r="I42" t="s">
+        <v>1081</v>
+      </c>
       <c r="J42" t="s">
         <v>1346</v>
       </c>
@@ -7496,6 +7505,9 @@
       <c r="G56" t="s">
         <v>1043</v>
       </c>
+      <c r="I56" t="s">
+        <v>1088</v>
+      </c>
       <c r="J56" t="s">
         <v>1346</v>
       </c>
@@ -7522,6 +7534,9 @@
       <c r="G57" t="s">
         <v>1036</v>
       </c>
+      <c r="I57" t="s">
+        <v>1088</v>
+      </c>
       <c r="J57" t="s">
         <v>1347</v>
       </c>
@@ -8882,6 +8897,9 @@
       <c r="G104" t="s">
         <v>1039</v>
       </c>
+      <c r="I104" t="s">
+        <v>1127</v>
+      </c>
       <c r="J104" t="s">
         <v>1348</v>
       </c>
@@ -8908,6 +8926,9 @@
       <c r="G105" t="s">
         <v>1039</v>
       </c>
+      <c r="I105" t="s">
+        <v>1127</v>
+      </c>
       <c r="J105" t="s">
         <v>1348</v>
       </c>
@@ -8934,6 +8955,9 @@
       <c r="G106" t="s">
         <v>1043</v>
       </c>
+      <c r="I106" t="s">
+        <v>1127</v>
+      </c>
       <c r="J106" t="s">
         <v>1348</v>
       </c>
@@ -9337,6 +9361,9 @@
       <c r="G120" t="s">
         <v>1045</v>
       </c>
+      <c r="I120" t="s">
+        <v>1134</v>
+      </c>
       <c r="J120" t="s">
         <v>1347</v>
       </c>
@@ -9508,6 +9535,9 @@
       <c r="G126" t="s">
         <v>1039</v>
       </c>
+      <c r="I126" t="s">
+        <v>1136</v>
+      </c>
       <c r="J126" t="s">
         <v>1348</v>
       </c>
@@ -9679,6 +9709,9 @@
       <c r="G132" t="s">
         <v>1042</v>
       </c>
+      <c r="I132" t="s">
+        <v>1139</v>
+      </c>
       <c r="J132" t="s">
         <v>1347</v>
       </c>
@@ -9705,6 +9738,9 @@
       <c r="G133" t="s">
         <v>1039</v>
       </c>
+      <c r="I133" t="s">
+        <v>1139</v>
+      </c>
       <c r="J133" t="s">
         <v>1348</v>
       </c>
@@ -9731,6 +9767,9 @@
       <c r="G134" t="s">
         <v>1039</v>
       </c>
+      <c r="I134" t="s">
+        <v>1139</v>
+      </c>
       <c r="J134" t="s">
         <v>1348</v>
       </c>
@@ -10047,6 +10086,9 @@
       <c r="G145" t="s">
         <v>1039</v>
       </c>
+      <c r="I145" t="s">
+        <v>1145</v>
+      </c>
       <c r="J145" t="s">
         <v>1349</v>
       </c>
@@ -10305,6 +10347,9 @@
       <c r="G154" t="s">
         <v>1036</v>
       </c>
+      <c r="I154" t="s">
+        <v>1150</v>
+      </c>
       <c r="J154" t="s">
         <v>1347</v>
       </c>
@@ -10331,6 +10376,9 @@
       <c r="G155" t="s">
         <v>1036</v>
       </c>
+      <c r="I155" t="s">
+        <v>1150</v>
+      </c>
       <c r="J155" t="s">
         <v>1347</v>
       </c>
@@ -10357,6 +10405,9 @@
       <c r="G156" t="s">
         <v>1036</v>
       </c>
+      <c r="I156" t="s">
+        <v>1150</v>
+      </c>
       <c r="J156" t="s">
         <v>1347</v>
       </c>
@@ -10383,6 +10434,9 @@
       <c r="G157" t="s">
         <v>1036</v>
       </c>
+      <c r="I157" t="s">
+        <v>1150</v>
+      </c>
       <c r="J157" t="s">
         <v>1347</v>
       </c>
@@ -10496,6 +10550,9 @@
       <c r="G161" t="s">
         <v>1036</v>
       </c>
+      <c r="I161" t="s">
+        <v>1151</v>
+      </c>
       <c r="J161" t="s">
         <v>1345</v>
       </c>
@@ -10696,6 +10753,9 @@
       <c r="G168" t="s">
         <v>1036</v>
       </c>
+      <c r="I168" t="s">
+        <v>1155</v>
+      </c>
       <c r="J168" t="s">
         <v>1345</v>
       </c>
@@ -10722,6 +10782,9 @@
       <c r="G169" t="s">
         <v>1036</v>
       </c>
+      <c r="I169" t="s">
+        <v>1155</v>
+      </c>
       <c r="J169" t="s">
         <v>1347</v>
       </c>
@@ -10748,6 +10811,9 @@
       <c r="G170" t="s">
         <v>1036</v>
       </c>
+      <c r="I170" t="s">
+        <v>1155</v>
+      </c>
       <c r="J170" t="s">
         <v>1345</v>
       </c>
@@ -10774,6 +10840,9 @@
       <c r="G171" t="s">
         <v>1036</v>
       </c>
+      <c r="I171" t="s">
+        <v>1155</v>
+      </c>
       <c r="J171" t="s">
         <v>1347</v>
       </c>
@@ -11463,6 +11532,9 @@
       <c r="G196" t="s">
         <v>1036</v>
       </c>
+      <c r="I196" t="s">
+        <v>1160</v>
+      </c>
       <c r="J196" t="s">
         <v>1347</v>
       </c>
@@ -11489,6 +11561,9 @@
       <c r="G197" t="s">
         <v>1036</v>
       </c>
+      <c r="I197" t="s">
+        <v>1160</v>
+      </c>
       <c r="J197" t="s">
         <v>1347</v>
       </c>
@@ -11515,6 +11590,9 @@
       <c r="G198" t="s">
         <v>1036</v>
       </c>
+      <c r="I198" t="s">
+        <v>1160</v>
+      </c>
       <c r="J198" t="s">
         <v>1347</v>
       </c>
@@ -11541,6 +11619,9 @@
       <c r="G199" t="s">
         <v>1036</v>
       </c>
+      <c r="I199" t="s">
+        <v>1160</v>
+      </c>
       <c r="J199" t="s">
         <v>1347</v>
       </c>
@@ -11973,6 +12054,9 @@
       <c r="G214" t="s">
         <v>1040</v>
       </c>
+      <c r="I214" t="s">
+        <v>1168</v>
+      </c>
       <c r="J214" t="s">
         <v>1348</v>
       </c>
@@ -12666,6 +12750,9 @@
       <c r="G238" t="s">
         <v>1039</v>
       </c>
+      <c r="I238" t="s">
+        <v>1181</v>
+      </c>
       <c r="J238" t="s">
         <v>1348</v>
       </c>
@@ -14519,6 +14606,9 @@
       <c r="G302" t="s">
         <v>1041</v>
       </c>
+      <c r="I302" t="s">
+        <v>1226</v>
+      </c>
       <c r="J302" t="s">
         <v>1346</v>
       </c>
@@ -15647,6 +15737,9 @@
       <c r="G341" t="s">
         <v>1045</v>
       </c>
+      <c r="I341" t="s">
+        <v>1252</v>
+      </c>
       <c r="J341" t="s">
         <v>1346</v>
       </c>
@@ -16137,6 +16230,9 @@
       <c r="G358" t="s">
         <v>1036</v>
       </c>
+      <c r="I358" t="s">
+        <v>1263</v>
+      </c>
       <c r="J358" t="s">
         <v>1347</v>
       </c>
@@ -17178,6 +17274,9 @@
       <c r="G394" t="s">
         <v>1036</v>
       </c>
+      <c r="I394" t="s">
+        <v>1293</v>
+      </c>
       <c r="J394" t="s">
         <v>1347</v>
       </c>
@@ -17204,6 +17303,9 @@
       <c r="G395" t="s">
         <v>1039</v>
       </c>
+      <c r="I395" t="s">
+        <v>1293</v>
+      </c>
       <c r="J395" t="s">
         <v>1348</v>
       </c>
@@ -17230,6 +17332,9 @@
       <c r="G396" t="s">
         <v>1039</v>
       </c>
+      <c r="I396" t="s">
+        <v>1293</v>
+      </c>
       <c r="J396" t="s">
         <v>1348</v>
       </c>
@@ -17517,6 +17622,9 @@
       <c r="G406" t="s">
         <v>1042</v>
       </c>
+      <c r="I406" t="s">
+        <v>1297</v>
+      </c>
       <c r="J406" t="s">
         <v>1347</v>
       </c>
@@ -19225,6 +19333,9 @@
       <c r="G465" t="s">
         <v>1039</v>
       </c>
+      <c r="I465" t="s">
+        <v>1340</v>
+      </c>
       <c r="J465" t="s">
         <v>1346</v>
       </c>
@@ -19239,8 +19350,20 @@
       <c r="B466" t="s">
         <v>475</v>
       </c>
+      <c r="D466" t="s">
+        <v>523</v>
+      </c>
+      <c r="E466" t="s">
+        <v>523</v>
+      </c>
       <c r="F466" t="s">
         <v>990</v>
+      </c>
+      <c r="I466" t="s">
+        <v>1340</v>
+      </c>
+      <c r="J466" t="s">
+        <v>1346</v>
       </c>
       <c r="K466" t="s">
         <v>990</v>
@@ -19253,8 +19376,20 @@
       <c r="B467" t="s">
         <v>476</v>
       </c>
+      <c r="D467" t="s">
+        <v>523</v>
+      </c>
+      <c r="E467" t="s">
+        <v>523</v>
+      </c>
       <c r="F467" t="s">
         <v>991</v>
+      </c>
+      <c r="I467" t="s">
+        <v>1340</v>
+      </c>
+      <c r="J467" t="s">
+        <v>1346</v>
       </c>
       <c r="K467" t="s">
         <v>991</v>
@@ -19267,8 +19402,20 @@
       <c r="B468" t="s">
         <v>477</v>
       </c>
+      <c r="D468" t="s">
+        <v>523</v>
+      </c>
+      <c r="E468" t="s">
+        <v>523</v>
+      </c>
       <c r="F468" t="s">
         <v>992</v>
+      </c>
+      <c r="I468" t="s">
+        <v>1340</v>
+      </c>
+      <c r="J468" t="s">
+        <v>1346</v>
       </c>
       <c r="K468" t="s">
         <v>992</v>
@@ -19373,8 +19520,17 @@
       <c r="B473" t="s">
         <v>481</v>
       </c>
+      <c r="D473" t="s">
+        <v>525</v>
+      </c>
+      <c r="E473" t="s">
+        <v>525</v>
+      </c>
       <c r="F473" t="s">
         <v>996</v>
+      </c>
+      <c r="J473" t="s">
+        <v>1346</v>
       </c>
       <c r="K473" t="s">
         <v>996</v>
@@ -19387,8 +19543,17 @@
       <c r="B474" t="s">
         <v>482</v>
       </c>
+      <c r="D474" t="s">
+        <v>525</v>
+      </c>
+      <c r="E474" t="s">
+        <v>525</v>
+      </c>
       <c r="F474" t="s">
         <v>997</v>
+      </c>
+      <c r="J474" t="s">
+        <v>1346</v>
       </c>
       <c r="K474" t="s">
         <v>997</v>
@@ -19401,8 +19566,17 @@
       <c r="B475" t="s">
         <v>483</v>
       </c>
+      <c r="D475" t="s">
+        <v>525</v>
+      </c>
+      <c r="E475" t="s">
+        <v>525</v>
+      </c>
       <c r="F475" t="s">
         <v>998</v>
+      </c>
+      <c r="J475" t="s">
+        <v>1346</v>
       </c>
       <c r="K475" t="s">
         <v>998</v>
@@ -19415,8 +19589,17 @@
       <c r="B476" t="s">
         <v>484</v>
       </c>
+      <c r="D476" t="s">
+        <v>525</v>
+      </c>
+      <c r="E476" t="s">
+        <v>525</v>
+      </c>
       <c r="F476" t="s">
         <v>999</v>
+      </c>
+      <c r="J476" t="s">
+        <v>1346</v>
       </c>
       <c r="K476" t="s">
         <v>999</v>
@@ -19484,6 +19667,12 @@
       <c r="F479" t="s">
         <v>1002</v>
       </c>
+      <c r="G479" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I479" t="s">
+        <v>1341</v>
+      </c>
       <c r="J479" t="s">
         <v>1346</v>
       </c>
@@ -19498,8 +19687,23 @@
       <c r="B480" t="s">
         <v>488</v>
       </c>
+      <c r="D480" t="s">
+        <v>523</v>
+      </c>
+      <c r="E480" t="s">
+        <v>523</v>
+      </c>
       <c r="F480" t="s">
         <v>1003</v>
+      </c>
+      <c r="G480" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I480" t="s">
+        <v>1341</v>
+      </c>
+      <c r="J480" t="s">
+        <v>1346</v>
       </c>
       <c r="K480" t="s">
         <v>1003</v>
@@ -19512,8 +19716,23 @@
       <c r="B481" t="s">
         <v>489</v>
       </c>
+      <c r="D481" t="s">
+        <v>523</v>
+      </c>
+      <c r="E481" t="s">
+        <v>523</v>
+      </c>
       <c r="F481" t="s">
         <v>1004</v>
+      </c>
+      <c r="G481" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I481" t="s">
+        <v>1341</v>
+      </c>
+      <c r="J481" t="s">
+        <v>1346</v>
       </c>
       <c r="K481" t="s">
         <v>1004</v>
@@ -19526,8 +19745,23 @@
       <c r="B482" t="s">
         <v>490</v>
       </c>
+      <c r="D482" t="s">
+        <v>523</v>
+      </c>
+      <c r="E482" t="s">
+        <v>523</v>
+      </c>
       <c r="F482" t="s">
         <v>1005</v>
+      </c>
+      <c r="G482" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I482" t="s">
+        <v>1341</v>
+      </c>
+      <c r="J482" t="s">
+        <v>1346</v>
       </c>
       <c r="K482" t="s">
         <v>1005</v>
@@ -19627,8 +19861,23 @@
       <c r="B486" t="s">
         <v>494</v>
       </c>
+      <c r="D486" t="s">
+        <v>522</v>
+      </c>
+      <c r="E486" t="s">
+        <v>522</v>
+      </c>
       <c r="F486" t="s">
         <v>1009</v>
+      </c>
+      <c r="G486" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I486" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J486" t="s">
+        <v>1346</v>
       </c>
       <c r="K486" t="s">
         <v>1009</v>
@@ -19641,8 +19890,23 @@
       <c r="B487" t="s">
         <v>495</v>
       </c>
+      <c r="D487" t="s">
+        <v>522</v>
+      </c>
+      <c r="E487" t="s">
+        <v>522</v>
+      </c>
       <c r="F487" t="s">
         <v>1010</v>
+      </c>
+      <c r="G487" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I487" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J487" t="s">
+        <v>1346</v>
       </c>
       <c r="K487" t="s">
         <v>1010</v>
@@ -19742,8 +20006,20 @@
       <c r="B491" t="s">
         <v>499</v>
       </c>
+      <c r="D491" t="s">
+        <v>523</v>
+      </c>
+      <c r="E491" t="s">
+        <v>523</v>
+      </c>
       <c r="F491" t="s">
         <v>1014</v>
+      </c>
+      <c r="I491" t="s">
+        <v>1343</v>
+      </c>
+      <c r="J491" t="s">
+        <v>1346</v>
       </c>
       <c r="K491" t="s">
         <v>1014</v>
@@ -19756,8 +20032,20 @@
       <c r="B492" t="s">
         <v>500</v>
       </c>
+      <c r="D492" t="s">
+        <v>523</v>
+      </c>
+      <c r="E492" t="s">
+        <v>523</v>
+      </c>
       <c r="F492" t="s">
         <v>1015</v>
+      </c>
+      <c r="I492" t="s">
+        <v>1343</v>
+      </c>
+      <c r="J492" t="s">
+        <v>1346</v>
       </c>
       <c r="K492" t="s">
         <v>1819</v>
@@ -19848,8 +20136,23 @@
       <c r="B496" t="s">
         <v>504</v>
       </c>
+      <c r="D496" t="s">
+        <v>522</v>
+      </c>
+      <c r="E496" t="s">
+        <v>522</v>
+      </c>
       <c r="F496" t="s">
         <v>1018</v>
+      </c>
+      <c r="G496" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I496" t="s">
+        <v>1344</v>
+      </c>
+      <c r="J496" t="s">
+        <v>1346</v>
       </c>
       <c r="K496" t="s">
         <v>1820</v>
@@ -19862,8 +20165,23 @@
       <c r="B497" t="s">
         <v>505</v>
       </c>
+      <c r="D497" t="s">
+        <v>522</v>
+      </c>
+      <c r="E497" t="s">
+        <v>522</v>
+      </c>
       <c r="F497" t="s">
         <v>1019</v>
+      </c>
+      <c r="G497" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I497" t="s">
+        <v>1344</v>
+      </c>
+      <c r="J497" t="s">
+        <v>1346</v>
       </c>
       <c r="K497" t="s">
         <v>1019</v>
@@ -19876,8 +20194,23 @@
       <c r="B498" t="s">
         <v>506</v>
       </c>
+      <c r="D498" t="s">
+        <v>522</v>
+      </c>
+      <c r="E498" t="s">
+        <v>522</v>
+      </c>
       <c r="F498" t="s">
         <v>1020</v>
+      </c>
+      <c r="G498" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I498" t="s">
+        <v>1344</v>
+      </c>
+      <c r="J498" t="s">
+        <v>1346</v>
       </c>
       <c r="K498" t="s">
         <v>1020</v>
@@ -19890,8 +20223,23 @@
       <c r="B499" t="s">
         <v>507</v>
       </c>
+      <c r="D499" t="s">
+        <v>522</v>
+      </c>
+      <c r="E499" t="s">
+        <v>522</v>
+      </c>
       <c r="F499" t="s">
         <v>1021</v>
+      </c>
+      <c r="G499" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I499" t="s">
+        <v>1344</v>
+      </c>
+      <c r="J499" t="s">
+        <v>1346</v>
       </c>
       <c r="K499" t="s">
         <v>1021</v>

--- a/UpdatedFiles/prior/CSProvisioning.xlsx
+++ b/UpdatedFiles/prior/CSProvisioning.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4039" uniqueCount="1835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4078" uniqueCount="1835">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -11246,6 +11246,9 @@
       <c r="G185" t="s">
         <v>1045</v>
       </c>
+      <c r="I185" t="s">
+        <v>1160</v>
+      </c>
       <c r="J185" t="s">
         <v>1347</v>
       </c>
@@ -11272,6 +11275,9 @@
       <c r="G186" t="s">
         <v>1036</v>
       </c>
+      <c r="I186" t="s">
+        <v>1160</v>
+      </c>
       <c r="J186" t="s">
         <v>1347</v>
       </c>
@@ -11298,6 +11304,9 @@
       <c r="G187" t="s">
         <v>1042</v>
       </c>
+      <c r="I187" t="s">
+        <v>1160</v>
+      </c>
       <c r="J187" t="s">
         <v>1347</v>
       </c>
@@ -11324,6 +11333,9 @@
       <c r="G188" t="s">
         <v>1042</v>
       </c>
+      <c r="I188" t="s">
+        <v>1160</v>
+      </c>
       <c r="J188" t="s">
         <v>1347</v>
       </c>
@@ -11350,6 +11362,9 @@
       <c r="G189" t="s">
         <v>1036</v>
       </c>
+      <c r="I189" t="s">
+        <v>1160</v>
+      </c>
       <c r="J189" t="s">
         <v>1347</v>
       </c>
@@ -11376,6 +11391,9 @@
       <c r="G190" t="s">
         <v>1036</v>
       </c>
+      <c r="I190" t="s">
+        <v>1160</v>
+      </c>
       <c r="J190" t="s">
         <v>1347</v>
       </c>
@@ -11402,6 +11420,9 @@
       <c r="G191" t="s">
         <v>1036</v>
       </c>
+      <c r="I191" t="s">
+        <v>1160</v>
+      </c>
       <c r="J191" t="s">
         <v>1347</v>
       </c>
@@ -11428,6 +11449,9 @@
       <c r="G192" t="s">
         <v>1036</v>
       </c>
+      <c r="I192" t="s">
+        <v>1160</v>
+      </c>
       <c r="J192" t="s">
         <v>1347</v>
       </c>
@@ -11454,6 +11478,9 @@
       <c r="G193" t="s">
         <v>1036</v>
       </c>
+      <c r="I193" t="s">
+        <v>1160</v>
+      </c>
       <c r="J193" t="s">
         <v>1347</v>
       </c>
@@ -11480,6 +11507,9 @@
       <c r="G194" t="s">
         <v>1036</v>
       </c>
+      <c r="I194" t="s">
+        <v>1160</v>
+      </c>
       <c r="J194" t="s">
         <v>1347</v>
       </c>
@@ -11506,6 +11536,9 @@
       <c r="G195" t="s">
         <v>1036</v>
       </c>
+      <c r="I195" t="s">
+        <v>1160</v>
+      </c>
       <c r="J195" t="s">
         <v>1347</v>
       </c>
@@ -19359,6 +19392,9 @@
       <c r="F466" t="s">
         <v>990</v>
       </c>
+      <c r="G466" t="s">
+        <v>1038</v>
+      </c>
       <c r="I466" t="s">
         <v>1340</v>
       </c>
@@ -19385,6 +19421,9 @@
       <c r="F467" t="s">
         <v>991</v>
       </c>
+      <c r="G467" t="s">
+        <v>1038</v>
+      </c>
       <c r="I467" t="s">
         <v>1340</v>
       </c>
@@ -19411,6 +19450,9 @@
       <c r="F468" t="s">
         <v>992</v>
       </c>
+      <c r="G468" t="s">
+        <v>1038</v>
+      </c>
       <c r="I468" t="s">
         <v>1340</v>
       </c>
@@ -19437,6 +19479,9 @@
       <c r="F469" t="s">
         <v>993</v>
       </c>
+      <c r="G469" t="s">
+        <v>1038</v>
+      </c>
       <c r="I469" t="s">
         <v>1340</v>
       </c>
@@ -19463,6 +19508,9 @@
       <c r="F470" t="s">
         <v>994</v>
       </c>
+      <c r="G470" t="s">
+        <v>1038</v>
+      </c>
       <c r="I470" t="s">
         <v>1340</v>
       </c>
@@ -19489,6 +19537,9 @@
       <c r="F471" t="s">
         <v>994</v>
       </c>
+      <c r="G471" t="s">
+        <v>1038</v>
+      </c>
       <c r="I471" t="s">
         <v>1340</v>
       </c>
@@ -19506,8 +19557,23 @@
       <c r="B472" t="s">
         <v>480</v>
       </c>
+      <c r="D472" t="s">
+        <v>525</v>
+      </c>
+      <c r="E472" t="s">
+        <v>525</v>
+      </c>
       <c r="F472" t="s">
         <v>995</v>
+      </c>
+      <c r="G472" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I472" t="s">
+        <v>1341</v>
+      </c>
+      <c r="J472" t="s">
+        <v>1346</v>
       </c>
       <c r="K472" t="s">
         <v>995</v>
@@ -19529,6 +19595,12 @@
       <c r="F473" t="s">
         <v>996</v>
       </c>
+      <c r="G473" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I473" t="s">
+        <v>1341</v>
+      </c>
       <c r="J473" t="s">
         <v>1346</v>
       </c>
@@ -19552,6 +19624,12 @@
       <c r="F474" t="s">
         <v>997</v>
       </c>
+      <c r="G474" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I474" t="s">
+        <v>1341</v>
+      </c>
       <c r="J474" t="s">
         <v>1346</v>
       </c>
@@ -19575,6 +19653,12 @@
       <c r="F475" t="s">
         <v>998</v>
       </c>
+      <c r="G475" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I475" t="s">
+        <v>1341</v>
+      </c>
       <c r="J475" t="s">
         <v>1346</v>
       </c>
@@ -19598,6 +19682,12 @@
       <c r="F476" t="s">
         <v>999</v>
       </c>
+      <c r="G476" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I476" t="s">
+        <v>1341</v>
+      </c>
       <c r="J476" t="s">
         <v>1346</v>
       </c>
@@ -19621,6 +19711,12 @@
       <c r="F477" t="s">
         <v>1000</v>
       </c>
+      <c r="G477" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I477" t="s">
+        <v>1341</v>
+      </c>
       <c r="J477" t="s">
         <v>1346</v>
       </c>
@@ -19644,6 +19740,12 @@
       <c r="F478" t="s">
         <v>1001</v>
       </c>
+      <c r="G478" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I478" t="s">
+        <v>1341</v>
+      </c>
       <c r="J478" t="s">
         <v>1346</v>
       </c>
@@ -20015,6 +20117,9 @@
       <c r="F491" t="s">
         <v>1014</v>
       </c>
+      <c r="G491" t="s">
+        <v>1039</v>
+      </c>
       <c r="I491" t="s">
         <v>1343</v>
       </c>
@@ -20041,6 +20146,9 @@
       <c r="F492" t="s">
         <v>1015</v>
       </c>
+      <c r="G492" t="s">
+        <v>1039</v>
+      </c>
       <c r="I492" t="s">
         <v>1343</v>
       </c>
@@ -20067,6 +20175,9 @@
       <c r="F493" t="s">
         <v>1015</v>
       </c>
+      <c r="G493" t="s">
+        <v>1039</v>
+      </c>
       <c r="I493" t="s">
         <v>1343</v>
       </c>
@@ -20093,6 +20204,9 @@
       <c r="F494" t="s">
         <v>1016</v>
       </c>
+      <c r="G494" t="s">
+        <v>1039</v>
+      </c>
       <c r="I494" t="s">
         <v>1343</v>
       </c>
@@ -20118,6 +20232,9 @@
       </c>
       <c r="F495" t="s">
         <v>1017</v>
+      </c>
+      <c r="G495" t="s">
+        <v>1039</v>
       </c>
       <c r="I495" t="s">
         <v>1343</v>
